--- a/output/VALUE/rebalance/rebalance_20250331.xlsx
+++ b/output/VALUE/rebalance/rebalance_20250331.xlsx
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02296122800620354</v>
+        <v>0.02296145457789311</v>
       </c>
       <c r="C2" t="n">
         <v>0.02763822602363059</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004676998017427048</v>
+        <v>0.004676771445737478</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02490605032596281</v>
+        <v>0.02490620357718129</v>
       </c>
       <c r="C3" t="n">
         <v>0.02518839837351592</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002823480475531125</v>
+        <v>0.0002821947963346297</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02711822724767619</v>
+        <v>0.02711840453307836</v>
       </c>
       <c r="C4" t="n">
         <v>0.02472015226938103</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002398074978295164</v>
+        <v>-0.002398252263697328</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02369255271439631</v>
+        <v>0.02369285900520979</v>
       </c>
       <c r="C5" t="n">
         <v>0.02418033751303744</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000487784798641127</v>
+        <v>0.000487478507827644</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02473208887954505</v>
+        <v>0.02473160950440328</v>
       </c>
       <c r="C6" t="n">
         <v>0.02416301050521414</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0005690783743309141</v>
+        <v>-0.0005685989991891412</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02398431826044921</v>
+        <v>0.02398431787160464</v>
       </c>
       <c r="C7" t="n">
         <v>0.0237006902133649</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0002836280470843063</v>
+        <v>-0.0002836276582397351</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02368453451436218</v>
+        <v>0.0236847914911303</v>
       </c>
       <c r="C8" t="n">
         <v>0.02369849652555104</v>
       </c>
       <c r="D8" t="n">
-        <v>1.396201118886511e-05</v>
+        <v>1.370503442073984e-05</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02237275841200637</v>
+        <v>0.02237279759482731</v>
       </c>
       <c r="C9" t="n">
         <v>0.02359217733538134</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001219418923374977</v>
+        <v>0.001219379740554038</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02260978591213008</v>
+        <v>0.02261052094348872</v>
       </c>
       <c r="C10" t="n">
         <v>0.02356806115289834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.000958275240768261</v>
+        <v>0.0009575402094096248</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01914614777895415</v>
+        <v>0.01914596908985317</v>
       </c>
       <c r="C11" t="n">
         <v>0.02218865558364929</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00304250780469514</v>
+        <v>0.003042686493796128</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02267865822014118</v>
+        <v>0.02267840976985933</v>
       </c>
       <c r="C12" t="n">
         <v>0.02203169137546512</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0006469668446760571</v>
+        <v>-0.0006467183943942058</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02341235608801863</v>
+        <v>0.02341289831743196</v>
       </c>
       <c r="C13" t="n">
         <v>0.02176677677529845</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001645579312720181</v>
+        <v>-0.001646121542133516</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01723735701934834</v>
+        <v>0.01723712003737982</v>
       </c>
       <c r="C14" t="n">
         <v>0.0217557387338997</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004518381714551364</v>
+        <v>0.004518618696519885</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02095284447610054</v>
+        <v>0.02095277882564617</v>
       </c>
       <c r="C15" t="n">
         <v>0.02160081182966953</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0006479673535689824</v>
+        <v>0.0006480330040233538</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01755442234596194</v>
+        <v>0.01755456249625981</v>
       </c>
       <c r="C16" t="n">
         <v>0.02121137790305104</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003656955557089097</v>
+        <v>0.00365681540679123</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01754972739948683</v>
+        <v>0.01755042973653575</v>
       </c>
       <c r="C17" t="n">
         <v>0.02112874730024645</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003579019900759615</v>
+        <v>0.003578317563710697</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02497102557482999</v>
+        <v>0.0249706976090988</v>
       </c>
       <c r="C19" t="n">
         <v>0.02078490550540968</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.004186120069420311</v>
+        <v>-0.004185792103689124</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02210090552182062</v>
+        <v>0.02210020277239579</v>
       </c>
       <c r="C20" t="n">
         <v>0.02043603350645151</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.00166487201536911</v>
+        <v>-0.001664169265944287</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01711501228361089</v>
+        <v>0.01711448011419827</v>
       </c>
       <c r="C23" t="n">
         <v>0.01932936399477828</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002214351711167385</v>
+        <v>0.002214883880580009</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01908336669763228</v>
+        <v>0.0190835431545479</v>
       </c>
       <c r="C24" t="n">
         <v>0.01918100737587539</v>
       </c>
       <c r="D24" t="n">
-        <v>9.764067824311398e-05</v>
+        <v>9.746422132748608e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0213773189310132</v>
+        <v>0.02137655545286275</v>
       </c>
       <c r="C25" t="n">
         <v>0.01914389985913927</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.002233419071873927</v>
+        <v>-0.002232655593723477</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01614093748383462</v>
+        <v>0.01614055584849231</v>
       </c>
       <c r="C26" t="n">
         <v>0.01897276092529648</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002831823441461857</v>
+        <v>0.002832205076804175</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02250233822401735</v>
+        <v>0.02250067057477462</v>
       </c>
       <c r="C27" t="n">
         <v>0.01894129995130303</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.003561038272714312</v>
+        <v>-0.00355937062347159</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01482831890292815</v>
+        <v>0.01482852567864831</v>
       </c>
       <c r="C28" t="n">
         <v>0.01891119438843085</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0040828754855027</v>
+        <v>0.004082668709782541</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,13 +6849,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01901470350292598</v>
+        <v>0.0190163137421443</v>
       </c>
       <c r="C29" t="n">
         <v>0.0184132978437443</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0006014056591816808</v>
+        <v>-0.0006030158984000056</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01915722554182423</v>
+        <v>0.0191580165574785</v>
       </c>
       <c r="C32" t="n">
         <v>0.01827695684879464</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0008802686930295921</v>
+        <v>-0.0008810597086838581</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02391104825961242</v>
+        <v>0.02391185495476726</v>
       </c>
       <c r="C33" t="n">
         <v>0.01826440569677641</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.005646642562836007</v>
+        <v>-0.005647449257990853</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01628900239881986</v>
+        <v>0.0162890190139098</v>
       </c>
       <c r="C35" t="n">
         <v>0.01814316323332183</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001854160834501972</v>
+        <v>0.001854144219412032</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02021350129260154</v>
+        <v>0.02021565550447568</v>
       </c>
       <c r="C37" t="n">
         <v>0.01810753339352202</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.002105967899079519</v>
+        <v>-0.00210812211095366</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01525926019544913</v>
+        <v>0.01525964939202673</v>
       </c>
       <c r="C38" t="n">
         <v>0.01807343927055085</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002814179075101718</v>
+        <v>0.002813789878524119</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01499229731829839</v>
+        <v>0.01499253810570582</v>
       </c>
       <c r="C39" t="n">
         <v>0.01805553406496838</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003063236746669988</v>
+        <v>0.003062995959262557</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01822912910085062</v>
+        <v>0.01822899459664184</v>
       </c>
       <c r="C40" t="n">
         <v>0.01798262304416871</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0002465060566819027</v>
+        <v>-0.0002463715524731284</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01751512598064037</v>
+        <v>0.01751522028196261</v>
       </c>
       <c r="C42" t="n">
         <v>0.01781636450877926</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0003012385281388856</v>
+        <v>0.000301144226816645</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02112006660079274</v>
+        <v>0.02112024115727086</v>
       </c>
       <c r="C43" t="n">
         <v>0.01774045920892199</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.003379607391870747</v>
+        <v>-0.003379781948348863</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01705652345108864</v>
+        <v>0.01705615285260943</v>
       </c>
       <c r="C48" t="n">
         <v>0.0173694630431143</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0003129395920256593</v>
+        <v>0.0003133101905048695</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01743594558789602</v>
+        <v>0.01743600758141535</v>
       </c>
       <c r="C49" t="n">
         <v>0.01728168003362512</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0001542655542709041</v>
+        <v>-0.0001543275477902256</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7290,13 +7290,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02120093565079606</v>
+        <v>0.02120187147898669</v>
       </c>
       <c r="C50" t="n">
         <v>0.01721413491978531</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.003986800731010744</v>
+        <v>-0.003987736559201375</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01690019636761485</v>
+        <v>0.01689956421827242</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01690019636761485</v>
+        <v>-0.01689956421827242</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01916394243979148</v>
+        <v>0.01916396625853996</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01916394243979148</v>
+        <v>-0.01916396625853996</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02349517148847121</v>
+        <v>0.02349255268937719</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02349517148847121</v>
+        <v>-0.02349255268937719</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01568002759099562</v>
+        <v>0.01568012002213667</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01568002759099562</v>
+        <v>-0.01568012002213667</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01854529846230222</v>
+        <v>0.01854482778315238</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01854529846230222</v>
+        <v>-0.01854482778315238</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01641810228713408</v>
+        <v>0.01641780795517831</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01641810228713408</v>
+        <v>-0.01641780795517831</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01969471795141126</v>
+        <v>0.01969456541115714</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01969471795141126</v>
+        <v>-0.01969456541115714</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01836488845450952</v>
+        <v>0.01836473751481658</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01836488845450952</v>
+        <v>-0.01836473751481658</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01906332753262681</v>
+        <v>0.01906341844153049</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01906332753262681</v>
+        <v>-0.01906341844153049</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0182978652159032</v>
+        <v>0.01829774172324779</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.0182978652159032</v>
+        <v>-0.01829774172324779</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01870504237968905</v>
+        <v>0.01870519122018263</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01870504237968905</v>
+        <v>-0.01870519122018263</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01718440163277233</v>
+        <v>0.01718482077272256</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01718440163277233</v>
+        <v>-0.01718482077272256</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02437997209475187</v>
+        <v>0.02437879219348951</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02437997209475187</v>
+        <v>-0.02437879219348951</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>

--- a/output/VALUE/rebalance/rebalance_20250331.xlsx
+++ b/output/VALUE/rebalance/rebalance_20250331.xlsx
@@ -588,7 +588,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>28.01%</t>
+          <t>27.97%</t>
         </is>
       </c>
     </row>
@@ -6282,13 +6282,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02296145457789311</v>
+        <v>0.02303068521914464</v>
       </c>
       <c r="C2" t="n">
         <v>0.02763822602363059</v>
       </c>
       <c r="D2" t="n">
-        <v>0.004676771445737478</v>
+        <v>0.004607540804485947</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6303,13 +6303,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02490620357718129</v>
+        <v>0.02498139058392049</v>
       </c>
       <c r="C3" t="n">
         <v>0.02518839837351592</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0002821947963346297</v>
+        <v>0.0002070077895954363</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6324,13 +6324,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02711840453307836</v>
+        <v>0.02720025929247875</v>
       </c>
       <c r="C4" t="n">
         <v>0.02472015226938103</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.002398252263697328</v>
+        <v>-0.002480107023097724</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6345,13 +6345,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02369285900520979</v>
+        <v>0.02376422216859787</v>
       </c>
       <c r="C5" t="n">
         <v>0.02418033751303744</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000487478507827644</v>
+        <v>0.0004161153444395722</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6366,13 +6366,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02473160950440328</v>
+        <v>0.02480690290792894</v>
       </c>
       <c r="C6" t="n">
         <v>0.02416301050521414</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0005685989991891412</v>
+        <v>-0.0006438924027147991</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6387,13 +6387,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02398431787160464</v>
+        <v>0.02405687029905154</v>
       </c>
       <c r="C7" t="n">
         <v>0.0237006902133649</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0002836276582397351</v>
+        <v>-0.0003561800856866394</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -6408,17 +6408,17 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0236847914911303</v>
+        <v>0.02375617971368386</v>
       </c>
       <c r="C8" t="n">
         <v>0.02369849652555104</v>
       </c>
       <c r="D8" t="n">
-        <v>1.370503442073984e-05</v>
+        <v>-5.768318813281423e-05</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>增加</t>
+          <t>減少</t>
         </is>
       </c>
     </row>
@@ -6429,13 +6429,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02237279759482731</v>
+        <v>0.02244043551728501</v>
       </c>
       <c r="C9" t="n">
         <v>0.02359217733538134</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001219379740554038</v>
+        <v>0.001151741818096335</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -6450,13 +6450,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02261052094348872</v>
+        <v>0.02267818002041678</v>
       </c>
       <c r="C10" t="n">
         <v>0.02356806115289834</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0009575402094096248</v>
+        <v>0.0008898811324815625</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6471,13 +6471,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01914596908985317</v>
+        <v>0.01920406445757977</v>
       </c>
       <c r="C11" t="n">
         <v>0.02218865558364929</v>
       </c>
       <c r="D11" t="n">
-        <v>0.003042686493796128</v>
+        <v>0.002984591126069521</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -6492,13 +6492,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02267840976985933</v>
+        <v>0.02274726066565452</v>
       </c>
       <c r="C12" t="n">
         <v>0.02203169137546512</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0006467183943942058</v>
+        <v>-0.0007155692901893961</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -6513,13 +6513,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02341289831743196</v>
+        <v>0.02348317795354862</v>
       </c>
       <c r="C13" t="n">
         <v>0.02176677677529845</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001646121542133516</v>
+        <v>-0.001716401178250171</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -6534,13 +6534,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01723712003737982</v>
+        <v>0.01728949964763944</v>
       </c>
       <c r="C14" t="n">
         <v>0.0217557387338997</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004518618696519885</v>
+        <v>0.004466239086260263</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -6555,13 +6555,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.02095277882564617</v>
+        <v>0.02101622637275279</v>
       </c>
       <c r="C15" t="n">
         <v>0.02160081182966953</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0006480330040233538</v>
+        <v>0.0005845854569167322</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -6576,13 +6576,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01755456249625981</v>
+        <v>0.01760752408993713</v>
       </c>
       <c r="C16" t="n">
         <v>0.02121137790305104</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00365681540679123</v>
+        <v>0.003603853813113907</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01755042973653575</v>
+        <v>0.01719795019770045</v>
       </c>
       <c r="C17" t="n">
         <v>0.02112874730024645</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003578317563710697</v>
+        <v>0.003930797102545999</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6639,13 +6639,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0249706976090988</v>
+        <v>0.02504656238149555</v>
       </c>
       <c r="C19" t="n">
         <v>0.02078490550540968</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.004185792103689124</v>
+        <v>-0.004261656876085873</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -6660,13 +6660,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02210020277239579</v>
+        <v>0.02216776027804732</v>
       </c>
       <c r="C20" t="n">
         <v>0.02043603350645151</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.001664169265944287</v>
+        <v>-0.001731726771595818</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6723,13 +6723,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01711448011419827</v>
+        <v>0.01716678482175003</v>
       </c>
       <c r="C23" t="n">
         <v>0.01932936399477828</v>
       </c>
       <c r="D23" t="n">
-        <v>0.002214883880580009</v>
+        <v>0.002162579173028246</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -6744,13 +6744,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.0190835431545479</v>
+        <v>0.01914109346485885</v>
       </c>
       <c r="C24" t="n">
         <v>0.01918100737587539</v>
       </c>
       <c r="D24" t="n">
-        <v>9.746422132748608e-05</v>
+        <v>3.991391101653904e-05</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -6765,13 +6765,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.02137655545286275</v>
+        <v>0.02144198485361541</v>
       </c>
       <c r="C25" t="n">
         <v>0.01914389985913927</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.002232655593723477</v>
+        <v>-0.002298084994476139</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -6786,13 +6786,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01614055584849231</v>
+        <v>0.01618976346699115</v>
       </c>
       <c r="C26" t="n">
         <v>0.01897276092529648</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002832205076804175</v>
+        <v>0.00278299745830533</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -6807,13 +6807,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02250067057477462</v>
+        <v>0.02257040730539559</v>
       </c>
       <c r="C27" t="n">
         <v>0.01894129995130303</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.00355937062347159</v>
+        <v>-0.003629107354092553</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6828,13 +6828,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01482852567864831</v>
+        <v>0.01487317424356241</v>
       </c>
       <c r="C28" t="n">
         <v>0.01891119438843085</v>
       </c>
       <c r="D28" t="n">
-        <v>0.004082668709782541</v>
+        <v>0.004038020144868438</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -6849,17 +6849,17 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0190163137421443</v>
+        <v>0.01809772944170498</v>
       </c>
       <c r="C29" t="n">
         <v>0.0184132978437443</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0006030158984000056</v>
+        <v>0.0003155684020393137</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>減少</t>
+          <t>增加</t>
         </is>
       </c>
     </row>
@@ -6912,13 +6912,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.0191580165574785</v>
+        <v>0.01921517573044045</v>
       </c>
       <c r="C32" t="n">
         <v>0.01827695684879464</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.0008810597086838581</v>
+        <v>-0.0009382188816458095</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -6933,13 +6933,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.02391185495476726</v>
+        <v>0.02398337865806341</v>
       </c>
       <c r="C33" t="n">
         <v>0.01826440569677641</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.005647449257990853</v>
+        <v>-0.005718972961286994</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -6975,13 +6975,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0162890190139098</v>
+        <v>0.01633827627510849</v>
       </c>
       <c r="C35" t="n">
         <v>0.01814316323332183</v>
       </c>
       <c r="D35" t="n">
-        <v>0.001854144219412032</v>
+        <v>0.001804886958213344</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -7017,13 +7017,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.02021565550447568</v>
+        <v>0.01913721910786111</v>
       </c>
       <c r="C37" t="n">
         <v>0.01810753339352202</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.00210812211095366</v>
+        <v>-0.00102968571433909</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -7038,13 +7038,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01525964939202673</v>
+        <v>0.0153054191240758</v>
       </c>
       <c r="C38" t="n">
         <v>0.01807343927055085</v>
       </c>
       <c r="D38" t="n">
-        <v>0.002813789878524119</v>
+        <v>0.002768020146475045</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -7059,13 +7059,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01499253810570582</v>
+        <v>0.01503764869005567</v>
       </c>
       <c r="C39" t="n">
         <v>0.01805553406496838</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003062995959262557</v>
+        <v>0.00301788537491271</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -7080,13 +7080,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01822899459664184</v>
+        <v>0.0182842718180148</v>
       </c>
       <c r="C40" t="n">
         <v>0.01798262304416871</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.0002463715524731284</v>
+        <v>-0.000301648773846086</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -7122,13 +7122,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.01751522028196261</v>
+        <v>0.01756810885396924</v>
       </c>
       <c r="C42" t="n">
         <v>0.01781636450877926</v>
       </c>
       <c r="D42" t="n">
-        <v>0.000301144226816645</v>
+        <v>0.000248255654810018</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -7143,13 +7143,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.02112024115727086</v>
+        <v>0.02118395434071784</v>
       </c>
       <c r="C43" t="n">
         <v>0.01774045920892199</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.003379781948348863</v>
+        <v>-0.003443495131795846</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -7248,13 +7248,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.01705615285260943</v>
+        <v>0.01710811906178757</v>
       </c>
       <c r="C48" t="n">
         <v>0.0173694630431143</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0003133101905048695</v>
+        <v>0.0002613439813267289</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -7269,13 +7269,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.01743600758141535</v>
+        <v>0.01748868894226717</v>
       </c>
       <c r="C49" t="n">
         <v>0.01728168003362512</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.0001543275477902256</v>
+        <v>-0.0002070089086420486</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -7290,13 +7290,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.02120187147898669</v>
+        <v>0.02126506801783018</v>
       </c>
       <c r="C50" t="n">
         <v>0.01721413491978531</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.003987736559201375</v>
+        <v>-0.004050933098044864</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -7332,13 +7332,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01689956421827242</v>
+        <v>0.01695131909230251</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.01689956421827242</v>
+        <v>-0.01695131909230251</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7353,13 +7353,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01916396625853996</v>
+        <v>0.01922191294687726</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01916396625853996</v>
+        <v>-0.01922191294687726</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7374,13 +7374,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.02349255268937719</v>
+        <v>0.02356624386877775</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.02349255268937719</v>
+        <v>-0.02356624386877775</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7395,13 +7395,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.01568012002213667</v>
+        <v>0.01572745933179868</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.01568012002213667</v>
+        <v>-0.01572745933179868</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7416,13 +7416,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01854482778315238</v>
+        <v>0.01860139758487546</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01854482778315238</v>
+        <v>-0.01860139758487546</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7437,13 +7437,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01641780795517831</v>
+        <v>0.01646776668776363</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01641780795517831</v>
+        <v>-0.01646776668776363</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01969456541115714</v>
+        <v>0.01975429404282051</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01969456541115714</v>
+        <v>-0.01975429404282051</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7479,13 +7479,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01836473751481658</v>
+        <v>0.01842044184075176</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01836473751481658</v>
+        <v>-0.01842044184075176</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7500,13 +7500,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.01906341844153049</v>
+        <v>0.01912099368181717</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.01906341844153049</v>
+        <v>-0.01912099368181717</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7521,13 +7521,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01829774172324779</v>
+        <v>0.01835321585831332</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01829774172324779</v>
+        <v>-0.01835321585831332</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7542,13 +7542,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01870519122018263</v>
+        <v>0.01825343202923548</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01870519122018263</v>
+        <v>-0.01825343202923548</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7563,13 +7563,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01718482077272256</v>
+        <v>0.01723638407217625</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01718482077272256</v>
+        <v>-0.01723638407217625</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7584,13 +7584,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.02437879219348951</v>
+        <v>0.02445372097755665</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.02437879219348951</v>
+        <v>-0.02445372097755665</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
